--- a/file/datalophocphan.xlsx
+++ b/file/datalophocphan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\Desktop\HK1-Nam4\Cong nghe moi\Do an\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioCode\data_baitaplon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AA1825-A9CE-4B9C-9406-6BB2BB5B0A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206012E6-41CE-4512-88D3-F22C9789FC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,18 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
-    <t>CATOON</t>
-  </si>
-  <si>
-    <t>HEHE</t>
-  </si>
-  <si>
-    <t>HAHA</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
     <t>Mã môn học phần</t>
   </si>
   <si>
@@ -69,9 +57,6 @@
     <t>Đã đăng ký</t>
   </si>
   <si>
-    <t>2021-2022</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -82,6 +67,21 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>2022-2023</t>
+  </si>
+  <si>
+    <t>TEST1</t>
+  </si>
+  <si>
+    <t>TEST2</t>
+  </si>
+  <si>
+    <t>TEST3</t>
+  </si>
+  <si>
+    <t>TEST4</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,102 +430,102 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/file/datalophocphan.xlsx
+++ b/file/datalophocphan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioCode\data_baitaplon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\Desktop\HK1-Nam4\Cong nghe moi\Do an\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206012E6-41CE-4512-88D3-F22C9789FC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA23C549-A7BF-461F-96B5-F98813C77DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,6 +57,9 @@
     <t>Đã đăng ký</t>
   </si>
   <si>
+    <t>2021-2022</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -67,9 +70,6 @@
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>2022-2023</t>
   </si>
   <si>
     <t>TEST1</t>
@@ -416,7 +416,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,13 +459,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -479,13 +479,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -499,13 +499,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -519,13 +519,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
